--- a/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
+++ b/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t xml:space="preserve">Kung Twu Sprite Sheet Breakdown - BOSS - YELLOW</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">Punching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BossPunching_Yellow.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147x67</t>
   </si>
   <si>
     <t xml:space="preserve">Kicking</t>
@@ -314,16 +320,16 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -460,28 +466,32 @@
         <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -501,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -521,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -541,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -561,11 +571,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -585,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -605,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
+++ b/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t xml:space="preserve">Kung Twu Sprite Sheet Breakdown - BOSS - YELLOW</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">Crouching</t>
   </si>
   <si>
+    <t xml:space="preserve">BossCrouching_Yellow.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">re-use frame 1 from sweeping?</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">CrouchPunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BossCrouchPunch_Yellow.png</t>
   </si>
   <si>
     <t xml:space="preserve">CrouchKick (Sweep)</t>
@@ -320,15 +326,15 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
   </cols>
@@ -435,7 +441,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
@@ -443,19 +449,23 @@
         <v>19</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,11 +473,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -476,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
@@ -487,11 +497,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -511,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -531,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -546,36 +556,40 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -595,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -615,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
+++ b/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t xml:space="preserve">Kung Twu Sprite Sheet Breakdown - BOSS - YELLOW</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">BossKicking_Yellow.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220x67</t>
   </si>
   <si>
     <t xml:space="preserve">JumpPunch</t>
@@ -174,7 +180,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +191,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,6 +255,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +342,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,7 +508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
@@ -503,14 +519,14 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>13</v>
@@ -521,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -541,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -561,11 +577,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -585,11 +601,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -609,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -629,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
+++ b/raw assets/Planning/KT-SpriteSheetGuide-BOSS.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff.hanlon/Documents/GitHub/kung-twu/raw assets/Planning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFE26C-A6EB-B140-B0A4-43CFF0991C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2320" yWindow="4740" windowWidth="20360" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOSS YELLOW" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BOSS YELLOW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,127 +25,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">Kung Twu Sprite Sheet Breakdown - BOSS - YELLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Characters are pixel doubled in game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THUMBNAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILENAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRAME SIZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRAMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHEET SIZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standing (idle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boss_Idle_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49x67</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+  <si>
+    <t>Kung Twu Sprite Sheet Breakdown - BOSS - YELLOW</t>
+  </si>
+  <si>
+    <t>*Characters are pixel doubled in game</t>
+  </si>
+  <si>
+    <t>POSE</t>
+  </si>
+  <si>
+    <t>THUMBNAIL</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>FRAME SIZE</t>
+  </si>
+  <si>
+    <t>FRAMES</t>
+  </si>
+  <si>
+    <t>SHEET SIZE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Standing (idle)</t>
+  </si>
+  <si>
+    <t>Boss_Idle_Yellow.png</t>
+  </si>
+  <si>
+    <t>49x67</t>
   </si>
   <si>
     <t xml:space="preserve"> 392x67</t>
   </si>
   <si>
-    <t xml:space="preserve">DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossWalking_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196x67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98x67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crouching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossCrouching_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re-use frame 1 from sweeping?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossPunching_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147x67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kicking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossKicking_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220x67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JumpPunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JumpKick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrouchPunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossCrouchPunch_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrouchKick (Sweep)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BossSweeping_Yellow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knockback (injured)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falldown (defeated)</t>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>BossWalking_Yellow.png</t>
+  </si>
+  <si>
+    <t>196x67</t>
+  </si>
+  <si>
+    <t>Jumping</t>
+  </si>
+  <si>
+    <t>98x67</t>
+  </si>
+  <si>
+    <t>Crouching</t>
+  </si>
+  <si>
+    <t>BossCrouching_Yellow.png</t>
+  </si>
+  <si>
+    <t>re-use frame 1 from sweeping?</t>
+  </si>
+  <si>
+    <t>Punching</t>
+  </si>
+  <si>
+    <t>BossPunching_Yellow.png</t>
+  </si>
+  <si>
+    <t>147x67</t>
+  </si>
+  <si>
+    <t>Kicking</t>
+  </si>
+  <si>
+    <t>BossKicking_Yellow.png</t>
+  </si>
+  <si>
+    <t>55x67</t>
+  </si>
+  <si>
+    <t>220x67</t>
+  </si>
+  <si>
+    <t>JumpPunch</t>
+  </si>
+  <si>
+    <t>JumpKick</t>
+  </si>
+  <si>
+    <t>CrouchPunch</t>
+  </si>
+  <si>
+    <t>BossCrouchPunch_Yellow.png</t>
+  </si>
+  <si>
+    <t>CrouchKick (Sweep)</t>
+  </si>
+  <si>
+    <t>BossSweeping_Yellow.png</t>
+  </si>
+  <si>
+    <t>Knockback (injured)</t>
+  </si>
+  <si>
+    <t>Falldown (defeated)</t>
+  </si>
+  <si>
+    <t>BossJumping_Yellow.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -149,22 +154,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -172,7 +162,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -201,76 +191,50 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -329,44 +293,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -389,8 +661,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -403,7 +675,7 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -413,8 +685,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -427,7 +699,7 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -437,28 +709,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>2</v>
+      <c r="F7" s="3">
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -471,7 +747,7 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -480,12 +756,12 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -498,7 +774,7 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -508,8 +784,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -522,7 +798,7 @@
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -532,8 +808,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -544,7 +820,7 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -552,8 +828,8 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -564,7 +840,7 @@
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -572,8 +848,8 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -586,7 +862,7 @@
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -596,8 +872,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -610,7 +886,7 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -620,8 +896,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -632,7 +908,7 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -640,8 +916,8 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -652,7 +928,7 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -661,12 +937,7 @@
       <c r="H16" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>